--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111161755</v>
+        <v>111171323</v>
       </c>
       <c r="B2" t="n">
-        <v>73693</v>
+        <v>89686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,40 +696,48 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Floåsen, Dlr</t>
+          <t>Floåsen, Sågliden SV Grövelsjön, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>367426.2809004323</v>
+        <v>367521.2096784535</v>
       </c>
       <c r="R2" t="n">
-        <v>6877273.327416106</v>
+        <v>6877280.436873091</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -758,7 +766,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,7 +776,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Växer på grov granlåga i källpåverkad grannaturskogsmiljö.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,8 +790,34 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Grannaturskog. Fuktig skogsmiljö</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -795,10 +834,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111170460</v>
+        <v>111170990</v>
       </c>
       <c r="B3" t="n">
-        <v>56395</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -831,7 +870,11 @@
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -839,10 +882,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>367451.3347130967</v>
+        <v>367520.1166661623</v>
       </c>
       <c r="R3" t="n">
-        <v>6877251.660204099</v>
+        <v>6877264.492593966</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -874,7 +917,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,12 +927,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Hackmärken på gammal gran i grannaturskog</t>
+          <t>Hackmärken på grov gammal gran.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -908,7 +951,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Grannaturskog. Källpåverkad fuktig skogsmiljö</t>
+          <t>Grannaturskog.</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -926,10 +969,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111176375</v>
+        <v>111170360</v>
       </c>
       <c r="B4" t="n">
-        <v>89673</v>
+        <v>96265</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,38 +981,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>658</v>
+        <v>219790</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -977,10 +1021,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>367506.041662542</v>
+        <v>367468.1641274394</v>
       </c>
       <c r="R4" t="n">
-        <v>6877289.962568442</v>
+        <v>6877272.632728736</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1012,7 +1056,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1022,12 +1066,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Växer på gammal granlåga i urskogsartad barrskog. På lågan växer även granticka</t>
+          <t>Växer i fuktig sänka i grannaturskog.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1047,22 +1091,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Grannaturskog med höga naturvärden</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Fuktig grannaturskogsmiljö.</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1080,10 +1109,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111170360</v>
+        <v>111160737</v>
       </c>
       <c r="B5" t="n">
-        <v>96251</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1092,53 +1121,53 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219790</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Floåsen, Sågliden SV Grövelsjön, Dlr</t>
+          <t>Floåsen, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>367468.1641274394</v>
+        <v>367460.109672991</v>
       </c>
       <c r="R5" t="n">
-        <v>6877272.632728736</v>
+        <v>6877259.311175373</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1167,7 +1196,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1177,12 +1206,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:28</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Växer i fuktig sänka i grannaturskog.</t>
+          <t>Många granar i området har häckmärken. Grannaturskog</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1191,19 +1220,8 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Fuktig grannaturskogsmiljö.</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1220,10 +1238,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111170660</v>
+        <v>111176375</v>
       </c>
       <c r="B6" t="n">
-        <v>56395</v>
+        <v>89686</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1236,31 +1254,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1268,10 +1289,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>367483.3259013406</v>
+        <v>367506.041662542</v>
       </c>
       <c r="R6" t="n">
-        <v>6877250.881693925</v>
+        <v>6877289.962568442</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1303,7 +1324,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1313,12 +1334,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Hackmärken på gammal gran i fin grannaturskog med höga naturvärden.</t>
+          <t>Växer på gammal granlåga i urskogsartad barrskog. På lågan växer även granticka</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1327,6 +1348,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1337,7 +1359,22 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Grannaturskog.</t>
+          <t>Grannaturskog med höga naturvärden</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1355,10 +1392,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111171463</v>
+        <v>111170460</v>
       </c>
       <c r="B7" t="n">
-        <v>89410</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1371,30 +1408,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1402,10 +1436,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>367521.2096784535</v>
+        <v>367451.3347130967</v>
       </c>
       <c r="R7" t="n">
-        <v>6877280.436873091</v>
+        <v>6877251.660204099</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1437,7 +1471,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1447,12 +1481,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Växer på grov granlåga.</t>
+          <t>Hackmärken på gammal gran i grannaturskog</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1461,7 +1495,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1472,22 +1505,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Grannaturskog.</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Grannaturskog. Källpåverkad fuktig skogsmiljö</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1505,10 +1523,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111170156</v>
+        <v>111170660</v>
       </c>
       <c r="B8" t="n">
-        <v>103250</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1517,35 +1535,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221725</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1553,10 +1571,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>367405.9724155046</v>
+        <v>367483.3259013406</v>
       </c>
       <c r="R8" t="n">
-        <v>6877307.975017975</v>
+        <v>6877250.881693925</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1588,7 +1606,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1598,7 +1616,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Hackmärken på gammal gran i fin grannaturskog med höga naturvärden.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1607,7 +1630,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1618,7 +1640,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Grannaturskog med höga naturvärden. Källpåverkad skogsmark</t>
+          <t>Grannaturskog.</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1636,10 +1658,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111170565</v>
+        <v>111170156</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>103273</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1648,35 +1670,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>221725</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(L.) A. Gray</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1684,10 +1706,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>367455.4931057327</v>
+        <v>367405.9724155046</v>
       </c>
       <c r="R9" t="n">
-        <v>6877249.617041712</v>
+        <v>6877307.975017975</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1719,7 +1741,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1729,12 +1751,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Hackmärken på gammal gran.</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1743,6 +1760,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1753,7 +1771,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Grannaturskog.</t>
+          <t>Grannaturskog med höga naturvärden. Källpåverkad skogsmark</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1774,7 +1792,7 @@
         <v>111172887</v>
       </c>
       <c r="B10" t="n">
-        <v>89410</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1906,10 +1924,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111171761</v>
+        <v>111171463</v>
       </c>
       <c r="B11" t="n">
-        <v>89673</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1922,21 +1940,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1953,10 +1971,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>367512.8745847875</v>
+        <v>367521.2096784535</v>
       </c>
       <c r="R11" t="n">
-        <v>6877284.053516859</v>
+        <v>6877280.436873091</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -2003,7 +2021,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Växer i brandrefugial granskog.</t>
+          <t>Växer på grov granlåga.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2023,7 +2041,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Grannaturskog</t>
+          <t>Grannaturskog.</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2036,14 +2054,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>Grov rötad granlåga</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Picea abies # Grov rötad granlåga</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2061,10 +2074,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111162475</v>
+        <v>111170565</v>
       </c>
       <c r="B12" t="n">
-        <v>103250</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2073,54 +2086,46 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221725</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Floåsen, Dlr</t>
+          <t>Floåsen, Sågliden SV Grövelsjön, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>367407.5296327327</v>
+        <v>367455.4931057327</v>
       </c>
       <c r="R12" t="n">
-        <v>6877311.675805484</v>
+        <v>6877249.617041712</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2152,7 +2157,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2162,12 +2167,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Växer intill källflöde i grannaturskog med mycket höga naturvärden.</t>
+          <t>Hackmärken på gammal gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2178,6 +2183,16 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Grannaturskog.</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2194,10 +2209,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111160737</v>
+        <v>111162475</v>
       </c>
       <c r="B13" t="n">
-        <v>56395</v>
+        <v>103273</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2206,39 +2221,43 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>221725</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2246,13 +2265,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>367460.109672991</v>
+        <v>367407.5296327327</v>
       </c>
       <c r="R13" t="n">
-        <v>6877259.311175373</v>
+        <v>6877311.675805484</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2281,7 +2300,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2291,12 +2310,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Många granar i området har häckmärken. Grannaturskog</t>
+          <t>Växer intill källflöde i grannaturskog med mycket höga naturvärden.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2323,10 +2342,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111170990</v>
+        <v>111171761</v>
       </c>
       <c r="B14" t="n">
-        <v>56395</v>
+        <v>89686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2339,31 +2358,30 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2371,10 +2389,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>367520.1166661623</v>
+        <v>367512.8745847875</v>
       </c>
       <c r="R14" t="n">
-        <v>6877264.492593966</v>
+        <v>6877284.053516859</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2406,7 +2424,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2416,12 +2434,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Hackmärken på grov gammal gran.</t>
+          <t>Växer i brandrefugial granskog.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2430,6 +2448,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2440,7 +2459,27 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Grannaturskog.</t>
+          <t>Grannaturskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Grov rötad granlåga</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Picea abies # Grov rötad granlåga</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2458,10 +2497,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111171323</v>
+        <v>111161755</v>
       </c>
       <c r="B15" t="n">
-        <v>89673</v>
+        <v>73696</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2474,48 +2513,40 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Floåsen, Sågliden SV Grövelsjön, Dlr</t>
+          <t>Floåsen, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>367521.2096784535</v>
+        <v>367426.2809004323</v>
       </c>
       <c r="R15" t="n">
-        <v>6877280.436873091</v>
+        <v>6877273.327416106</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2544,7 +2575,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2554,12 +2585,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Växer på grov granlåga i källpåverkad grannaturskogsmiljö.</t>
+          <t>13:09</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2568,34 +2594,8 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Grannaturskog. Fuktig skogsmiljö</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2615,7 +2615,7 @@
         <v>111180652</v>
       </c>
       <c r="B16" t="n">
-        <v>89673</v>
+        <v>89686</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>111180416</v>
       </c>
       <c r="B17" t="n">
-        <v>89410</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
